--- a/capstone_hosting/static/excel/studenttemplate.xlsx
+++ b/capstone_hosting/static/excel/studenttemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STEM</t>
   </si>
@@ -56,15 +56,9 @@
     <t>LRN (it's fine if excel converts the number as long as you put the right value)</t>
   </si>
   <si>
-    <t>Delete rows 2 and 3 row when using the template</t>
-  </si>
-  <si>
     <t>&lt;- Example Row</t>
   </si>
   <si>
-    <t>Section ONLY</t>
-  </si>
-  <si>
     <t>Class number in their class</t>
   </si>
   <si>
@@ -75,6 +69,9 @@
   </si>
   <si>
     <t>lrn</t>
+  </si>
+  <si>
+    <t>Section ONLY (Follow listed sections in "Start Times &amp; Sections" page)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,6 +177,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -466,19 +466,21 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -496,32 +498,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="123" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -543,12 +543,12 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>

--- a/capstone_hosting/static/excel/studenttemplate.xlsx
+++ b/capstone_hosting/static/excel/studenttemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STEM</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>Section ONLY (Follow listed sections in "Start Times &amp; Sections" page)</t>
+  </si>
+  <si>
+    <t>lates</t>
+  </si>
+  <si>
+    <t>absents</t>
+  </si>
+  <si>
+    <t>latetoday</t>
+  </si>
+  <si>
+    <t>absenttoday</t>
+  </si>
+  <si>
+    <t>Total number of lates</t>
+  </si>
+  <si>
+    <t>Total number of absents</t>
+  </si>
+  <si>
+    <t>Is the student late today? (True or False)</t>
+  </si>
+  <si>
+    <t>Is the student absent today? (True or False)</t>
   </si>
 </sst>
 </file>
@@ -156,31 +180,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,166 +490,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="123" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>482582150312</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
